--- a/assets/files/excel/24114.xlsx
+++ b/assets/files/excel/24114.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\Эксель-интерактив\Задачи в Приложение для ПК\Excel-решения_Бачило\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AA_Work\2017_ФХИ_Информатика\3_Рабочие материалы\3-й этап\Эксель-интерактив\Excel-решения\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="0YUni+QmR1lWflr1RowMjwo8/npPYmCqFNCyF35n3ISw1DtaetIhJF4ONNivh3UkmhLF39Ypc/qoi64NcmZ0Ng==" workbookSaltValue="yLg1Vdb2u8KVfcdpJMieXQ==" workbookSpinCount="100000" lockStructure="1"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qNItJvnN6mWY31UUmVjBEOM9uSdjLM33fg2sMF4Cfl6FeKB+aRwMM/tbZg8fXZUMbmAK8vKfw5KNSBcbWKvxMA==" workbookSaltValue="qH42Y9e1rG3iV11iv3byDQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
@@ -694,6 +694,41 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -724,41 +759,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1087,11 +1087,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="493119952"/>
-        <c:axId val="493120512"/>
+        <c:axId val="310664224"/>
+        <c:axId val="310666576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="493119952"/>
+        <c:axId val="310664224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1134,7 +1134,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493120512"/>
+        <c:crossAx val="310666576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1142,7 +1142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493120512"/>
+        <c:axId val="310666576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1193,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="493119952"/>
+        <c:crossAx val="310664224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1671,11 +1671,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="207645296"/>
-        <c:axId val="207651760"/>
+        <c:axId val="310665400"/>
+        <c:axId val="310666968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="207645296"/>
+        <c:axId val="310665400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1718,7 +1718,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207651760"/>
+        <c:crossAx val="310666968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1726,7 +1726,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207651760"/>
+        <c:axId val="310666968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1777,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207645296"/>
+        <c:crossAx val="310665400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1791,6 +1791,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3115,37 +3116,37 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -3187,44 +3188,44 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3240,26 +3241,26 @@
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="52" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
@@ -3272,8 +3273,8 @@
       <c r="E15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
@@ -3600,16 +3601,16 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="DBtU+rCbfly22PXlVnHI6iGKk+HMWHlZ0HcZRZXHBVaJh277CX4Iobw/oBt8rDbKbHNzTYJQB16C6zOuarMpBA==" saltValue="vFKVW1cBgSrXSQ+e+oVq5w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
     <mergeCell ref="A3:P3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A10:P10"/>
     <mergeCell ref="A11:P11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
   </mergeCells>
   <conditionalFormatting sqref="F16:F38">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
@@ -3641,9 +3642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3661,11 +3660,11 @@
         <v>22</v>
       </c>
       <c r="C1" s="4" t="str">
-        <f>IF(AND('Лаз_или_струйный(решение)'!B40="верно",'Лаз_или_струйный(решение)'!C40="верно",'Лаз_или_струйный(решение)'!D40="верно",'Лаз_или_струйный(решение)'!E40="верно",'Лаз_или_струйный(решение)'!F40="верно"),"решена","не решена")</f>
+        <f ca="1">IF(AND('Лаз_или_струйный(решение)'!B40="верно",'Лаз_или_струйный(решение)'!C40="верно",'Лаз_или_струйный(решение)'!D40="верно",'Лаз_или_струйный(решение)'!E40="верно",'Лаз_или_струйный(решение)'!F40="верно"),"решена","не решена")</f>
         <v>не решена</v>
       </c>
       <c r="D1" s="34" t="str">
-        <f>IF(AND(B40="верно",C40="верно",D40="верно",'Лаз_или_струйный(решение)'!E40="верно"),"верно","не верно")</f>
+        <f ca="1">IF(AND(B40="верно",C40="верно",D40="верно",'Лаз_или_струйный(решение)'!E40="верно"),"верно","не верно")</f>
         <v>не верно</v>
       </c>
       <c r="E1" s="34" t="str">
@@ -3679,37 +3678,37 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="47"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="51"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="6" t="s">
         <v>5</v>
       </c>
@@ -3751,44 +3750,44 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45"/>
+      <c r="P10" s="45"/>
     </row>
     <row r="11" spans="1:16" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3803,23 +3802,23 @@
       </c>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="40"/>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="49"/>
+      <c r="D14" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="42"/>
-      <c r="F14" s="43" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="52" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="22" t="s">
         <v>17</v>
       </c>
@@ -3832,7 +3831,7 @@
       <c r="E15" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="44"/>
+      <c r="F15" s="53"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
@@ -4435,19 +4434,19 @@
         <v>19</v>
       </c>
       <c r="B40" s="34" t="str">
-        <f>IFERROR(IF(SUMPRODUCT(Лаз_или_струйный!$A$16:$A$38,Лаз_или_струйный!B16:B38)='Лаз_или_струйный(решение)'!B39,"верно","не верно"),"не верно")</f>
+        <f ca="1">IFERROR(IF(asb(SUMPRODUCT(Лаз_или_струйный!$A$16:$A$38,Лаз_или_струйный!B16:B38)-'Лаз_или_струйный(решение)'!B39)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="C40" s="34" t="str">
-        <f>IFERROR(IF(SUMPRODUCT(Лаз_или_струйный!$A$16:$A$38,Лаз_или_струйный!C16:C38)='Лаз_или_струйный(решение)'!C39,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUMPRODUCT(Лаз_или_струйный!$A$16:$A$38,Лаз_или_струйный!C16:C38)-'Лаз_или_струйный(решение)'!C39)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="D40" s="34" t="str">
-        <f>IFERROR(IF(SUMPRODUCT(Лаз_или_струйный!$A$16:$A$38,Лаз_или_струйный!D16:D38)='Лаз_или_струйный(решение)'!D39,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUMPRODUCT(Лаз_или_струйный!$A$16:$A$38,Лаз_или_струйный!D16:D38)-'Лаз_или_струйный(решение)'!D39)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="E40" s="34" t="str">
-        <f>IFERROR(IF(SUMPRODUCT(Лаз_или_струйный!$A$16:$A$38,Лаз_или_струйный!E16:E38)='Лаз_или_струйный(решение)'!E39,"верно","не верно"),"не верно")</f>
+        <f>IFERROR(IF(ABS(SUMPRODUCT(Лаз_или_струйный!$A$16:$A$38,Лаз_или_струйный!E16:E38)-'Лаз_или_струйный(решение)'!E39)&lt;1,"верно","не верно"),"не верно")</f>
         <v>не верно</v>
       </c>
       <c r="F40" s="34" t="str">
